--- a/biology/Zoologie/Grèbe_minime/Grèbe_minime.xlsx
+++ b/biology/Zoologie/Grèbe_minime/Grèbe_minime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gr%C3%A8be_minime</t>
+          <t>Grèbe_minime</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tachybaptus dominicus
 Le Grèbe minime (Tachybaptus dominicus) est une espèce d'oiseaux aquatiques appartenant à la famille des Podicipedidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gr%C3%A8be_minime</t>
+          <t>Grèbe_minime</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le plus petit représentant de la famille (environ 23 cm de longueur)[1]. La tête et le cou sont d'un gris-noir assez uniforme durant la période nuptiale. En dehors de celle-ci, le menton et la gorge sont blancs. Les iris sont jaunes et le bec est noir.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le plus petit représentant de la famille (environ 23 cm de longueur). La tête et le cou sont d'un gris-noir assez uniforme durant la période nuptiale. En dehors de celle-ci, le menton et la gorge sont blancs. Les iris sont jaunes et le bec est noir.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gr%C3%A8be_minime</t>
+          <t>Grèbe_minime</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente depuis le sud des États-Unis (Texas) jusqu'au nord de l'Argentine (Andes exclues), ainsi que dans les Caraïbes.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gr%C3%A8be_minime</t>
+          <t>Grèbe_minime</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 11.1, 2021) du Congrès ornithologique international, cette espèce est constituée des cinq sous-espèces suivantes (ordre phylogénique) :
 Tachybaptus dominicus brachypterus, (Chapman, 1899) ;
